--- a/NEW HR/PUNZALAN, LUCIANA.xlsx
+++ b/NEW HR/PUNZALAN, LUCIANA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC15C3-C2C6-4D5F-A52E-3261BA0DC4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,12 +264,27 @@
   </si>
   <si>
     <t>6/20,26/2023</t>
+  </si>
+  <si>
+    <t>10/10-12/2023</t>
+  </si>
+  <si>
+    <t>10/2,3,6/2023</t>
+  </si>
+  <si>
+    <t>10/13,19,23/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>11/28,29, 12/1,4-7,11,12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -945,7 +959,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -962,25 +976,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K192" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1287,34 +1301,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K192"/>
+  <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A87" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1349,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1367,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1387,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1381,7 +1395,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1394,7 +1408,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1411,7 +1425,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1455,7 +1469,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.076999999999998</v>
+        <v>68.326999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1465,12 +1479,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>48.933999999999997</v>
+        <v>45.183999999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1502,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>43101</v>
       </c>
@@ -1508,7 +1522,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>43132</v>
       </c>
@@ -1528,7 +1542,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>43160</v>
       </c>
@@ -1548,7 +1562,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>43191</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>43215</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>43221</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>43252</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>45</v>
@@ -1648,7 +1662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>43282</v>
       </c>
@@ -1668,7 +1682,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>43313</v>
       </c>
@@ -1688,7 +1702,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>43344</v>
       </c>
@@ -1714,7 +1728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>43374</v>
       </c>
@@ -1734,7 +1748,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>43405</v>
       </c>
@@ -1754,7 +1768,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>43435</v>
       </c>
@@ -1780,7 +1794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>43</v>
@@ -1802,7 +1816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>59</v>
@@ -1824,7 +1838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>57</v>
       </c>
@@ -1842,7 +1856,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>43466</v>
       </c>
@@ -1862,7 +1876,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>43497</v>
       </c>
@@ -1882,7 +1896,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="47"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>43525</v>
       </c>
@@ -1902,7 +1916,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>43556</v>
       </c>
@@ -1922,7 +1936,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>43586</v>
       </c>
@@ -1942,7 +1956,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>43617</v>
       </c>
@@ -1962,7 +1976,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>43647</v>
       </c>
@@ -1982,7 +1996,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>43678</v>
       </c>
@@ -2002,7 +2016,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>43709</v>
       </c>
@@ -2022,7 +2036,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>43739</v>
       </c>
@@ -2042,7 +2056,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>43770</v>
       </c>
@@ -2062,7 +2076,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>43800</v>
       </c>
@@ -2086,7 +2100,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2118,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>43831</v>
       </c>
@@ -2124,7 +2138,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>43862</v>
       </c>
@@ -2144,7 +2158,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>43891</v>
       </c>
@@ -2164,7 +2178,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>43922</v>
       </c>
@@ -2184,7 +2198,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>43952</v>
       </c>
@@ -2204,7 +2218,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>43983</v>
       </c>
@@ -2224,7 +2238,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>44013</v>
       </c>
@@ -2244,7 +2258,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <v>44044</v>
       </c>
@@ -2264,7 +2278,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>44075</v>
       </c>
@@ -2284,7 +2298,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>44105</v>
       </c>
@@ -2304,7 +2318,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>44136</v>
       </c>
@@ -2324,7 +2338,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>44166</v>
       </c>
@@ -2348,7 +2362,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>63</v>
       </c>
@@ -2366,7 +2380,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>44197</v>
       </c>
@@ -2386,7 +2400,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>44228</v>
       </c>
@@ -2406,7 +2420,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>44256</v>
       </c>
@@ -2426,7 +2440,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>44287</v>
       </c>
@@ -2446,7 +2460,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>44317</v>
       </c>
@@ -2466,7 +2480,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>44348</v>
       </c>
@@ -2486,7 +2500,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>44378</v>
       </c>
@@ -2506,7 +2520,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>44409</v>
       </c>
@@ -2526,7 +2540,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>44440</v>
       </c>
@@ -2546,7 +2560,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>44470</v>
       </c>
@@ -2566,7 +2580,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>44501</v>
       </c>
@@ -2586,7 +2600,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>44531</v>
       </c>
@@ -2610,7 +2624,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
         <v>42</v>
       </c>
@@ -2628,7 +2642,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>44562</v>
       </c>
@@ -2648,7 +2662,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>44593</v>
       </c>
@@ -2668,7 +2682,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>44621</v>
       </c>
@@ -2688,7 +2702,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>44652</v>
       </c>
@@ -2708,7 +2722,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>44682</v>
       </c>
@@ -2728,7 +2742,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>44713</v>
       </c>
@@ -2748,7 +2762,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="37">
         <v>44743</v>
       </c>
@@ -2774,7 +2788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="37">
         <v>44774</v>
       </c>
@@ -2800,7 +2814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
       <c r="B74" s="20" t="s">
         <v>45</v>
@@ -2822,7 +2836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="37"/>
       <c r="B75" s="20" t="s">
         <v>55</v>
@@ -2844,7 +2858,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>44805</v>
       </c>
@@ -2870,7 +2884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="37">
         <v>44835</v>
       </c>
@@ -2890,7 +2904,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="37">
         <v>44866</v>
       </c>
@@ -2916,7 +2930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="37"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -2938,7 +2952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="37">
         <v>44896</v>
       </c>
@@ -2958,7 +2972,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
         <v>68</v>
       </c>
@@ -2976,7 +2990,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="37">
         <v>44957</v>
       </c>
@@ -2996,7 +3010,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="37">
         <v>44985</v>
       </c>
@@ -3022,7 +3036,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="37"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3044,7 +3058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="37">
         <v>45016</v>
       </c>
@@ -3070,7 +3084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="37"/>
       <c r="B86" s="20" t="s">
         <v>72</v>
@@ -3090,7 +3104,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="37">
         <v>45046</v>
       </c>
@@ -3110,7 +3124,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="37">
         <v>45077</v>
       </c>
@@ -3136,7 +3150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="37"/>
       <c r="B89" s="20" t="s">
         <v>50</v>
@@ -3158,7 +3172,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="37"/>
       <c r="B90" s="20" t="s">
         <v>50</v>
@@ -3180,7 +3194,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="37">
         <v>45107</v>
       </c>
@@ -3206,20 +3220,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="37">
         <v>45138</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="36"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="36">
         <v>2</v>
@@ -3230,57 +3246,77 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="37"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="37">
+        <v>45169</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="36"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="36"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="37"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="37">
+        <v>45199</v>
+      </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="36"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="36"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="37"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="37">
+        <v>45230</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="36"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="36"/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="36">
+        <v>3</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="37"/>
-      <c r="B96" s="20"/>
+      <c r="B96" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C96" s="13"/>
       <c r="D96" s="36"/>
       <c r="E96" s="9"/>
@@ -3289,14 +3325,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H96" s="36"/>
+      <c r="H96" s="36">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="47">
+        <v>45190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="37"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="36"/>
       <c r="E97" s="9"/>
@@ -3305,14 +3347,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H97" s="36"/>
+      <c r="H97" s="36">
+        <v>3</v>
+      </c>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="37"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="36"/>
       <c r="E98" s="9"/>
@@ -3321,29 +3369,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="36"/>
+      <c r="H98" s="36">
+        <v>3</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="37"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="36"/>
+      <c r="K98" s="47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="37">
+        <v>45260</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="36">
+        <v>9</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="36"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="37"/>
+      <c r="K99" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="37">
+        <v>45291</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="36"/>
@@ -3358,7 +3422,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="37"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3374,7 +3438,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="37"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3390,7 +3454,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="37"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3406,7 +3470,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="37"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3422,7 +3486,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="37"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3438,7 +3502,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="37"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3454,7 +3518,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="37"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3470,7 +3534,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="37"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3486,7 +3550,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="37"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3502,7 +3566,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="37"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3518,7 +3582,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="37"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3534,7 +3598,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="37"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3550,7 +3614,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="37"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3566,7 +3630,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="37"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3582,7 +3646,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="37"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3598,7 +3662,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="37"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3614,7 +3678,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="37"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3630,7 +3694,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="37"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3646,7 +3710,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="37"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3662,7 +3726,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="37"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3678,7 +3742,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="37"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3694,7 +3758,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="37"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3710,7 +3774,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="37"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3726,7 +3790,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="37"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3742,7 +3806,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="37"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3758,7 +3822,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="37"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3774,7 +3838,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="37"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3790,7 +3854,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="37"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3806,7 +3870,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="37"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3822,7 +3886,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="37"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3838,7 +3902,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="37"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3854,7 +3918,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="37"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3870,7 +3934,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="37"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -3886,7 +3950,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="37"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -3902,7 +3966,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="37"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -3918,7 +3982,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="37"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3934,7 +3998,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="37"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -3950,7 +4014,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="37"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -3966,7 +4030,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="37"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -3982,7 +4046,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="37"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -3998,7 +4062,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="37"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4014,7 +4078,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="37"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4030,7 +4094,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="37"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4046,7 +4110,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="37"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4062,7 +4126,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="37"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4078,7 +4142,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="37"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4094,7 +4158,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="37"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4110,7 +4174,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="37"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4126,7 +4190,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="37"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4142,7 +4206,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="37"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4158,7 +4222,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="37"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4174,7 +4238,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="37"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4190,7 +4254,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="37"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4206,7 +4270,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="37"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4222,7 +4286,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="37"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4238,7 +4302,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="37"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4254,7 +4318,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="37"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4270,7 +4334,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="37"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4286,7 +4350,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="37"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4302,7 +4366,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="37"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4318,7 +4382,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="37"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4334,7 +4398,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="37"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4350,7 +4414,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="37"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4366,7 +4430,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="37"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4382,7 +4446,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="37"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4398,7 +4462,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="37"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -4414,7 +4478,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="37"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -4430,7 +4494,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="37"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -4446,7 +4510,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="37"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -4462,7 +4526,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="37"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -4478,7 +4542,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="37"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -4494,7 +4558,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="37"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -4510,7 +4574,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="37"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -4526,7 +4590,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="37"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -4542,7 +4606,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="37"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -4558,7 +4622,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="37"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -4574,7 +4638,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="37"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -4590,7 +4654,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="37"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -4606,7 +4670,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="37"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -4622,7 +4686,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="37"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -4638,7 +4702,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="37"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -4654,7 +4718,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="37"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -4670,7 +4734,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="37"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -4686,7 +4750,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="37"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -4702,7 +4766,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="37"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -4718,7 +4782,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="37"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -4734,7 +4798,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="37"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -4750,7 +4814,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="37"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -4766,7 +4830,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="37"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -4782,7 +4846,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="37"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -4798,7 +4862,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="37"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -4814,21 +4878,69 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="38"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="39"/>
-      <c r="D192" s="40"/>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="37"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="36"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="39" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H192" s="40"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="36"/>
       <c r="I192" s="9"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="15"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="37"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="36"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="36"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="37"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="36"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="38"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="39"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="39" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="40"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4846,10 +4958,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4872,28 +4984,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="45" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="45" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>32</v>
       </c>
@@ -4906,7 +5018,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4935,7 +5047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="44">
         <v>15.577</v>
       </c>
@@ -4959,17 +5071,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="46" t="s">
         <v>28</v>
       </c>
@@ -4990,7 +5102,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="45">
         <v>1</v>
       </c>
@@ -5017,7 +5129,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="45">
         <v>2</v>
       </c>
@@ -5043,7 +5155,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="45">
         <v>3</v>
       </c>
@@ -5069,7 +5181,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="45">
         <v>4</v>
       </c>
@@ -5095,7 +5207,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="45">
         <v>5</v>
       </c>
@@ -5121,7 +5233,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="45">
         <v>6</v>
       </c>
@@ -5147,7 +5259,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="45">
         <v>7</v>
       </c>
@@ -5173,7 +5285,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="45">
         <v>8</v>
       </c>
@@ -5199,7 +5311,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="45">
         <v>9</v>
       </c>
@@ -5219,7 +5331,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="45">
         <v>10</v>
       </c>
@@ -5239,7 +5351,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="45">
         <v>11</v>
       </c>
@@ -5259,7 +5371,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="45">
         <v>12</v>
       </c>
@@ -5280,7 +5392,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="45">
         <v>13</v>
       </c>
@@ -5301,7 +5413,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="45">
         <v>14</v>
       </c>
@@ -5322,7 +5434,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="45">
         <v>15</v>
       </c>
@@ -5343,7 +5455,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="45">
         <v>16</v>
       </c>
@@ -5364,7 +5476,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="45">
         <v>17</v>
       </c>
@@ -5385,7 +5497,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="45">
         <v>18</v>
       </c>
@@ -5406,7 +5518,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="45">
         <v>19</v>
       </c>
@@ -5427,7 +5539,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="45">
         <v>20</v>
       </c>
@@ -5448,7 +5560,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="45">
         <v>21</v>
       </c>
@@ -5469,7 +5581,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="45">
         <v>22</v>
       </c>
@@ -5490,7 +5602,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="45">
         <v>23</v>
       </c>
@@ -5511,7 +5623,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="45">
         <v>24</v>
       </c>
@@ -5532,7 +5644,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="45">
         <v>25</v>
       </c>
@@ -5553,7 +5665,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="45">
         <v>26</v>
       </c>
@@ -5574,7 +5686,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="45">
         <v>27</v>
       </c>
@@ -5595,7 +5707,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="45">
         <v>28</v>
       </c>
@@ -5616,7 +5728,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="45">
         <v>29</v>
       </c>
@@ -5637,7 +5749,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="45">
         <v>30</v>
       </c>
@@ -5658,7 +5770,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="45">
         <v>31</v>
       </c>
@@ -5679,7 +5791,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="45">
         <v>32</v>
       </c>
@@ -5688,7 +5800,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="45">
         <v>33</v>
       </c>
@@ -5697,7 +5809,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="45">
         <v>34</v>
       </c>
@@ -5706,7 +5818,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="45">
         <v>35</v>
       </c>
@@ -5715,7 +5827,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="45">
         <v>36</v>
       </c>
@@ -5724,7 +5836,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="45">
         <v>37</v>
       </c>
@@ -5733,7 +5845,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="45">
         <v>38</v>
       </c>
@@ -5742,7 +5854,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="45">
         <v>39</v>
       </c>
@@ -5751,7 +5863,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="45">
         <v>40</v>
       </c>
@@ -5760,7 +5872,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="45">
         <v>41</v>
       </c>
@@ -5769,7 +5881,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="45">
         <v>42</v>
       </c>
@@ -5778,7 +5890,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="45">
         <v>43</v>
       </c>
@@ -5787,7 +5899,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="45">
         <v>44</v>
       </c>
@@ -5796,7 +5908,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="45">
         <v>45</v>
       </c>
@@ -5805,7 +5917,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="45">
         <v>46</v>
       </c>
@@ -5814,7 +5926,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="45">
         <v>47</v>
       </c>
@@ -5823,7 +5935,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="45">
         <v>48</v>
       </c>
@@ -5832,7 +5944,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="45">
         <v>49</v>
       </c>
@@ -5841,7 +5953,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="45">
         <v>50</v>
       </c>
@@ -5850,7 +5962,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="45">
         <v>51</v>
       </c>
@@ -5859,7 +5971,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="45">
         <v>52</v>
       </c>
@@ -5868,7 +5980,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="45">
         <v>53</v>
       </c>
@@ -5877,7 +5989,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="45">
         <v>54</v>
       </c>
@@ -5886,7 +5998,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="45">
         <v>55</v>
       </c>
@@ -5895,7 +6007,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="45">
         <v>56</v>
       </c>
@@ -5904,7 +6016,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="45">
         <v>57</v>
       </c>
@@ -5913,7 +6025,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="45">
         <v>58</v>
       </c>
@@ -5922,7 +6034,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="45">
         <v>59</v>
       </c>
@@ -5931,7 +6043,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="45">
         <v>60</v>
       </c>
@@ -5940,7 +6052,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
